--- a/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik oktober 2024.xlsx
+++ b/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik oktober 2024.xlsx
@@ -14,6 +14,8 @@
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstPass" sheetId="2" r:id="rId6"/>
+    <sheet name="SecondPass" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
@@ -36,150 +38,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>1056930 - FRISKSNIT.dk</t>
+  </si>
+  <si>
+    <t>Rapporter » Kunder »</t>
+  </si>
+  <si>
+    <t>Omsætningsstatistik for kunder - perioden 01.10.24 - 31.10.24 - Frederikssund Hospital (FSH), Køkken</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Kunde / Vare</t>
+  </si>
+  <si>
+    <t>Enhed</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Omsætning</t>
+  </si>
+  <si>
+    <t>Rodfrugtmix</t>
+  </si>
+  <si>
+    <t>3932-5</t>
+  </si>
+  <si>
+    <t>Rodfrugtmix - Tern 20x20mm (5kg)</t>
+  </si>
+  <si>
+    <t>Løg - Rødløg - Skalotteløg</t>
+  </si>
+  <si>
+    <t>4231-1</t>
+  </si>
+  <si>
+    <t>Rødløg - Tern 5x5mm (1kg)</t>
+  </si>
+  <si>
+    <t>Porre - Forårsløg</t>
+  </si>
+  <si>
+    <t>4441-1</t>
+  </si>
+  <si>
+    <t>Porre - Skiver 2mm (1kg)</t>
+  </si>
+  <si>
+    <t>Frugtsnit</t>
+  </si>
+  <si>
+    <t>7505-32</t>
+  </si>
+  <si>
+    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
+  </si>
+  <si>
+    <t>7508-1</t>
+  </si>
+  <si>
+    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
+  </si>
+  <si>
+    <t>Region H</t>
+  </si>
+  <si>
+    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
+  </si>
+  <si>
+    <t>Øko - Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8551-3</t>
+  </si>
+  <si>
+    <t>Kartoffelbåde m/skræl (3kg Vakuum) - Økologisk</t>
+  </si>
+  <si>
+    <t>Øko - Forkogte Kartofler</t>
+  </si>
+  <si>
+    <t>Ø8607-3</t>
+  </si>
+  <si>
+    <t>ØKO Kartoffel - forkogt, mos (3kg)</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Øko%</t>
+  </si>
   <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t>1056930 - FRISKSNIT.dk</t>
-  </si>
-  <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>Rapporter » Kunder »</t>
-  </si>
-  <si>
     <t>9% filler,90% NrHeader,</t>
   </si>
   <si>
-    <t>Omsætningsstatistik for kunder - perioden 01.10.24 - 31.10.24 - Frederikssund Hospital (FSH), Køkken</t>
-  </si>
-  <si>
     <t>9% filler,90% productNameHeader,</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>9% filler,90% QuantityHeader,</t>
   </si>
   <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Kunde / Vare</t>
-  </si>
-  <si>
-    <t>Enhed</t>
-  </si>
-  <si>
-    <t>Antal</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>Omsætning</t>
-  </si>
-  <si>
     <t>4% filler,47% SingleMassHeader,47% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Rodfrugtmix</t>
-  </si>
-  <si>
-    <t>3932-5</t>
-  </si>
-  <si>
-    <t>Rodfrugtmix - Tern 20x20mm (5kg)</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
   </si>
   <si>
-    <t>Løg - Rødløg - Skalotteløg</t>
-  </si>
-  <si>
-    <t>4231-1</t>
-  </si>
-  <si>
-    <t>Rødløg - Tern 5x5mm (1kg)</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProductNr,47% containsAmount,</t>
   </si>
   <si>
-    <t>Porre - Forårsløg</t>
-  </si>
-  <si>
-    <t>4441-1</t>
-  </si>
-  <si>
-    <t>Porre - Skiver 2mm (1kg)</t>
-  </si>
-  <si>
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>Frugtsnit</t>
-  </si>
-  <si>
-    <t>7505-32</t>
-  </si>
-  <si>
-    <t>Frugtsalat m/druer , håndskåret i lage (3,2kg)</t>
-  </si>
-  <si>
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>7508-1</t>
-  </si>
-  <si>
-    <t>Frugtblanding (U/druer), 15x15mm SMÅ TERN håndskåret (1kg)</t>
-  </si>
-  <si>
     <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
   </si>
   <si>
-    <t>Region H</t>
-  </si>
-  <si>
-    <t>Frederikssund Hospital (FSH), Køkken i alt:</t>
-  </si>
-  <si>
     <t>9% filler,90% containsProduct,</t>
   </si>
   <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>Øko - Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8551-3</t>
-  </si>
-  <si>
-    <t>Kartoffelbåde m/skræl (3kg Vakuum) - Økologisk</t>
-  </si>
-  <si>
-    <t>Øko - Forkogte Kartofler</t>
-  </si>
-  <si>
-    <t>Ø8607-3</t>
-  </si>
-  <si>
-    <t>ØKO Kartoffel - forkogt, mos (3kg)</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Øko%</t>
+    <t xml:space="preserve">VARENR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -222,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +308,26 @@
         <fgColor rgb="FF8C898B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -323,8 +357,11 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -389,6 +426,26 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="15" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,6 +781,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CBFD69-4E36-4D5E-9A44-919F332A0E10}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="74.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="99.109375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="54.5546875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="6.5546875" customWidth="1"/>
+    <col min="6" max="7" bestFit="1" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <f>+D7*E7</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <v>357.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>102.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>197.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4501.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3110</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
+        <f>SUM(F7:F11)</f>
+        <v>109</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(G7:G11)</f>
+        <v>6252.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5">
+        <f ref="F15:F16" t="shared" si="1">+D15*E15</f>
+        <v>54</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>22</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1732.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3110</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
+        <f>SUM(F15:F16)</f>
+        <v>120</v>
+      </c>
+      <c r="G17" s="15">
+        <f>SUM(G15:G16)</f>
+        <v>2812.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" s="8" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="9">
+        <f>+F12+F17</f>
+        <v>229</v>
+      </c>
+      <c r="G19" s="9">
+        <f>+G12+G17</f>
+        <v>9065.46</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="10">
+        <f>+F17/F19</f>
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="G20" s="10">
+        <f>+G17/G19</f>
+        <v>0.3102434956416994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44065231-9F51-4B97-BE3C-420ABDC8EE6D}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -743,249 +1170,249 @@
     <row r="1">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="16" t="s">
-        <v>2</v>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="18" t="s">
-        <v>4</v>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="20" t="s">
-        <v>6</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="22" t="s">
-        <v>8</v>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="H6" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="C7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="D7" s="32">
         <v>5</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="34">
         <v>2</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="34">
         <f>+D7*E7</f>
         <v>10</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="35">
         <v>357.22</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>20</v>
+      <c r="H7" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="A8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="32">
         <v>1</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="34">
         <v>4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="34">
         <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
         <v>4</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="35">
         <v>102.68</v>
       </c>
-      <c r="H8" s="26" t="s">
-        <v>24</v>
+      <c r="H8" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="A9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="32">
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="34">
         <v>4</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="35">
         <v>197.56</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>28</v>
+      <c r="H9" s="31" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="37">
+      <c r="A10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="40">
         <v>3.2</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="34">
         <v>5</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="34">
         <v>1094</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>32</v>
+      <c r="H10" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="A11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="32">
         <v>1</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="34">
         <v>75</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="34">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="35">
         <v>4501.5</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>35</v>
+      <c r="H11" s="36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="38">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="41">
         <v>3110</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="39">
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="42">
         <f>SUM(F7:F11)</f>
         <v>109</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="43">
         <f>SUM(G7:G11)</f>
         <v>6252.96</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>38</v>
+      <c r="H12" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -994,133 +1421,503 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="36" t="s">
-        <v>39</v>
+      <c r="H13" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="A15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="32">
         <v>3</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="34">
         <v>18</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="34">
         <f ref="F15:F16" t="shared" si="1">+D15*E15</f>
         <v>54</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="34">
         <v>1080</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="A16" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="32">
         <v>3</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="34">
         <v>22</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="34">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="35">
         <v>1732.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="38">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="41">
         <v>3110</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="39">
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="42">
         <f>SUM(F15:F16)</f>
         <v>120</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="43">
         <f>SUM(G15:G16)</f>
         <v>2812.5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" s="7" customFormat="1">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="41">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="44">
         <f>+F12+F17</f>
         <v>229</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="45">
         <f>+G12+G17</f>
         <v>9065.46</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1">
-      <c r="A20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="43">
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="46">
         <f>+F17/F19</f>
         <v>0.5240174672489083</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="46">
+        <f>+G17/G19</f>
+        <v>0.3102434956416994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71218BA0-1F7C-4EF6-8E7E-0076FEB62F15}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="74.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="99.109375" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="8" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="54.5546875" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="6.5546875" customWidth="1"/>
+    <col min="6" max="7" bestFit="1" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="53">
+        <v>2</v>
+      </c>
+      <c r="F7" s="54">
+        <f>+D7*E7</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <v>357.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="53">
+        <v>4</v>
+      </c>
+      <c r="F8" s="54">
+        <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>102.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>4</v>
+      </c>
+      <c r="F9" s="54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>197.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E10" s="53">
+        <v>5</v>
+      </c>
+      <c r="F10" s="54">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="53">
+        <v>75</v>
+      </c>
+      <c r="F11" s="54">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4501.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3110</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
+        <f>SUM(F7:F11)</f>
+        <v>109</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(G7:G11)</f>
+        <v>6252.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="53">
+        <v>18</v>
+      </c>
+      <c r="F15" s="54">
+        <f ref="F15:F16" t="shared" si="1">+D15*E15</f>
+        <v>54</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="53">
+        <v>22</v>
+      </c>
+      <c r="F16" s="54">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1732.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3110</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
+        <f>SUM(F15:F16)</f>
+        <v>120</v>
+      </c>
+      <c r="G17" s="15">
+        <f>SUM(G15:G16)</f>
+        <v>2812.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="9">
+        <f>+F12+F17</f>
+        <v>229</v>
+      </c>
+      <c r="G19" s="9">
+        <f>+G12+G17</f>
+        <v>9065.46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="10">
+        <f>+F17/F19</f>
+        <v>0.5240174672489083</v>
+      </c>
+      <c r="G20" s="10">
         <f>+G17/G19</f>
         <v>0.3102434956416994</v>
       </c>

--- a/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik oktober 2024.xlsx
+++ b/out/Frisksnit/Frederikssund Hospital (FSH), Køkken - Økologi statistik oktober 2024.xlsx
@@ -175,7 +175,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>9% filler,90% containsProduct,</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -295,7 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -342,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,19 +431,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44065231-9F51-4B97-BE3C-420ABDC8EE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7281009B-10C2-47DC-A5CD-2CC51F5CCA4B}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1559,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71218BA0-1F7C-4EF6-8E7E-0076FEB62F15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBD6E0F-8DFD-4BF0-81C1-CFABB4E849CE}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1631,16 +1641,16 @@
       <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="54" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1654,16 +1664,16 @@
       <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="55">
         <v>2</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="57">
         <f>+D7*E7</f>
         <v>10</v>
       </c>
@@ -1678,16 +1688,16 @@
       <c r="B8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="55">
         <v>4</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="57">
         <f ref="F8:F11" t="shared" si="0">+D8*E8</f>
         <v>4</v>
       </c>
@@ -1702,16 +1712,16 @@
       <c r="B9" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="55">
         <v>4</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1726,16 +1736,16 @@
       <c r="B10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>3.2</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="55">
         <v>5</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1750,16 +1760,16 @@
       <c r="B11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="55">
         <v>75</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="57">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1771,15 +1781,15 @@
       <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="50">
         <v>3110</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15">
+      <c r="E12" s="56"/>
+      <c r="F12" s="58">
         <f>SUM(F7:F11)</f>
         <v>109</v>
       </c>
@@ -1802,16 +1812,16 @@
       <c r="B14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="54" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1825,16 +1835,16 @@
       <c r="B15" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="55">
         <v>18</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="57">
         <f ref="F15:F16" t="shared" si="1">+D15*E15</f>
         <v>54</v>
       </c>
@@ -1849,16 +1859,16 @@
       <c r="B16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="55">
         <v>22</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="57">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -1870,15 +1880,15 @@
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="50">
         <v>3110</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15">
+      <c r="E17" s="56"/>
+      <c r="F17" s="58">
         <f>SUM(F15:F16)</f>
         <v>120</v>
       </c>
